--- a/meta/4-5-1.xlsx
+++ b/meta/4-5-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905DB8E7-3B77-4A55-89AB-50CAB50FF84C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="3" r:id="rId1"/>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,9 +304,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -368,10 +366,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,231 +649,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="87.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="48.89453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.1015625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="78" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="61.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:2" ht="168.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:2" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" s="3" customFormat="1" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="23"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F65" s="11"/>
-      <c r="K65" s="4"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="10"/>
+      <c r="K63" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
